--- a/OPE_only_CHEMSUMM.xlsx
+++ b/OPE_only_CHEMSUMM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81838D54-941C-4062-A3AC-EEE7A757EF17}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C874017-0AC6-4FC6-B40C-B232C0A85420}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="435" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPECHEMSUMM" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Compound</t>
   </si>
@@ -139,12 +139,18 @@
   </si>
   <si>
     <t>TDCiPP</t>
+  </si>
+  <si>
+    <t>VegHL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -622,10 +628,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -982,28 +989,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="H10" sqref="H10:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="24" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1026,61 +1034,64 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1103,15 +1114,15 @@
         <v>1488</v>
       </c>
       <c r="H2" s="1">
+        <v>156</v>
+      </c>
+      <c r="I2" s="1">
         <v>6.3</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>999</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1">
         <v>0</v>
       </c>
@@ -1122,40 +1133,43 @@
         <v>0</v>
       </c>
       <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
         <v>1.9060773480662983E-14</v>
       </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
       <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
         <v>1.7499999999999998E-5</v>
-      </c>
-      <c r="R2" s="1">
-        <v>2.616143551903963E-10</v>
       </c>
       <c r="S2" s="1">
         <v>2.616143551903963E-10</v>
       </c>
       <c r="T2" s="1">
+        <v>2.616143551903963E-10</v>
+      </c>
+      <c r="U2" s="1">
         <v>12.83</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>1.62</v>
       </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
       <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
         <v>1.44</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>2.8908</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -1178,15 +1192,15 @@
         <v>816</v>
       </c>
       <c r="H3" s="1">
+        <v>108</v>
+      </c>
+      <c r="I3" s="1">
         <v>3</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>999</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
+      <c r="K3" s="1"/>
       <c r="L3" s="1">
         <v>0</v>
       </c>
@@ -1197,40 +1211,43 @@
         <v>0</v>
       </c>
       <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>1.9723618090452261E-13</v>
       </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
       <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
         <v>7.3099999999999999E-4</v>
-      </c>
-      <c r="R3" s="1">
-        <v>2.616143551903963E-10</v>
       </c>
       <c r="S3" s="1">
         <v>2.616143551903963E-10</v>
       </c>
       <c r="T3" s="1">
+        <v>2.616143551903963E-10</v>
+      </c>
+      <c r="U3" s="1">
         <v>12.664999999999999</v>
       </c>
-      <c r="U3" s="1">
+      <c r="V3" s="1">
         <v>1.21</v>
       </c>
-      <c r="V3" s="1">
-        <v>0</v>
-      </c>
       <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
         <v>1.9</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Y3" s="1">
         <v>3.2603</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1253,15 +1270,15 @@
         <v>1464</v>
       </c>
       <c r="H4" s="1">
+        <v>144</v>
+      </c>
+      <c r="I4" s="1">
         <v>1.6000000000000003</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>999</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
+      <c r="K4" s="1"/>
       <c r="L4" s="1">
         <v>0</v>
       </c>
@@ -1272,40 +1289,43 @@
         <v>0</v>
       </c>
       <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
         <v>1.7543859649122809E-13</v>
       </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
       <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
         <v>2.02E-4</v>
-      </c>
-      <c r="R4" s="1">
-        <v>2.616143551903963E-10</v>
       </c>
       <c r="S4" s="1">
         <v>2.616143551903963E-10</v>
       </c>
       <c r="T4" s="1">
+        <v>2.616143551903963E-10</v>
+      </c>
+      <c r="U4" s="1">
         <v>7.18</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>2.09</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>0.03</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X4" s="1">
         <v>0.98</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Y4" s="1">
         <v>1.7605999999999999</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1328,15 +1348,15 @@
         <v>1464</v>
       </c>
       <c r="H5" s="1">
+        <v>120</v>
+      </c>
+      <c r="I5" s="1">
         <v>2.9000000000000004</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>999</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
+      <c r="K5" s="1"/>
       <c r="L5" s="1">
         <v>0</v>
       </c>
@@ -1347,40 +1367,43 @@
         <v>0</v>
       </c>
       <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
         <v>2.4085365853658537E-13</v>
       </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
       <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
         <v>9.6904040697928296E-4</v>
-      </c>
-      <c r="R5" s="1">
-        <v>2.616143551903963E-10</v>
       </c>
       <c r="S5" s="1">
         <v>2.616143551903963E-10</v>
       </c>
       <c r="T5" s="1">
+        <v>2.616143551903963E-10</v>
+      </c>
+      <c r="U5" s="1">
         <v>8.7040000000000006</v>
       </c>
-      <c r="U5" s="1">
+      <c r="V5" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="V5" s="1">
-        <v>0</v>
-      </c>
       <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
         <v>1.32</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Y5" s="1">
         <v>2.1833</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1403,15 +1426,15 @@
         <v>1464</v>
       </c>
       <c r="H6" s="1">
+        <v>108</v>
+      </c>
+      <c r="I6" s="1">
         <v>3.7000000000000006</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>999</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
+      <c r="K6" s="1"/>
       <c r="L6" s="1">
         <v>0</v>
       </c>
@@ -1422,40 +1445,43 @@
         <v>0</v>
       </c>
       <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
         <v>1.8329466357308583E-13</v>
       </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
       <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
         <v>1.13E-4</v>
-      </c>
-      <c r="R6" s="1">
-        <v>2.616143551903963E-10</v>
       </c>
       <c r="S6" s="1">
         <v>2.616143551903963E-10</v>
       </c>
       <c r="T6" s="1">
+        <v>2.616143551903963E-10</v>
+      </c>
+      <c r="U6" s="1">
         <v>9.93</v>
       </c>
-      <c r="U6" s="1">
+      <c r="V6" s="1">
         <v>2.1</v>
       </c>
-      <c r="V6" s="1">
+      <c r="W6" s="1">
         <v>0.03</v>
       </c>
-      <c r="W6" s="1">
+      <c r="X6" s="1">
         <v>1.24</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Y6" s="1">
         <v>2.5510000000000002</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1478,15 +1504,15 @@
         <v>10</v>
       </c>
       <c r="H7" s="1">
+        <v>156</v>
+      </c>
+      <c r="I7" s="1">
         <v>4.7</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>999</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
+      <c r="K7" s="1"/>
       <c r="L7" s="1">
         <v>0</v>
       </c>
@@ -1497,38 +1523,85 @@
         <v>0</v>
       </c>
       <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
         <v>1.803680981595092E-12</v>
       </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
       <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
         <v>2.0299999999999999E-5</v>
-      </c>
-      <c r="R7" s="1">
-        <v>2.616143551903963E-10</v>
       </c>
       <c r="S7" s="1">
         <v>2.616143551903963E-10</v>
       </c>
       <c r="T7" s="1">
+        <v>2.616143551903963E-10</v>
+      </c>
+      <c r="U7" s="1">
         <v>11.259</v>
       </c>
-      <c r="U7" s="1">
+      <c r="V7" s="1">
         <v>1.66</v>
       </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
       <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="X7" s="1">
+      <c r="Y7" s="1">
         <v>2.3714</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OPE_only_CHEMSUMM.xlsx
+++ b/OPE_only_CHEMSUMM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C874017-0AC6-4FC6-B40C-B232C0A85420}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1B47C3-9A95-4E0A-A6CA-52E7740F2883}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="435" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,7 +149,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -632,7 +632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -992,7 +992,7 @@
   <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:I18"/>
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OPE_only_CHEMSUMM.xlsx
+++ b/OPE_only_CHEMSUMM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1B47C3-9A95-4E0A-A6CA-52E7740F2883}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AB80231-6975-45FA-95D1-7D5FCCC7AEA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="435" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>SMILES</t>
   </si>
   <si>
-    <t>EHDPP</t>
-  </si>
-  <si>
     <t>CCCCC(CC)COP(=O)(OC1=CC=CC=C1)OC2=CC=CC=C2</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>bc_us</t>
   </si>
   <si>
-    <t>TBOEP</t>
-  </si>
-  <si>
     <t>TCiPP</t>
   </si>
   <si>
@@ -142,6 +136,12 @@
   </si>
   <si>
     <t>VegHL</t>
+  </si>
+  <si>
+    <t>Bromide</t>
+  </si>
+  <si>
+    <t>Benzotriazole</t>
   </si>
 </sst>
 </file>
@@ -992,7 +992,7 @@
   <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,22 +1034,22 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
         <v>32</v>
-      </c>
-      <c r="J1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
       </c>
       <c r="N1" t="s">
         <v>7</v>
@@ -1058,7 +1058,7 @@
         <v>8</v>
       </c>
       <c r="P1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q1" t="s">
         <v>9</v>
@@ -1093,10 +1093,10 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1">
-        <v>362</v>
+        <v>79.903999999999996</v>
       </c>
       <c r="C2" s="2">
         <v>1.2563999999999999E-6</v>
@@ -1166,12 +1166,12 @@
         <v>2.8908</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1">
         <v>398</v>
@@ -1244,12 +1244,12 @@
         <v>3.2603</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>285</v>
@@ -1322,12 +1322,12 @@
         <v>1.7605999999999999</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1">
         <v>328</v>
@@ -1400,12 +1400,12 @@
         <v>2.1833</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1">
         <v>431</v>
@@ -1478,12 +1478,12 @@
         <v>2.5510000000000002</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1">
         <v>326</v>
@@ -1556,7 +1556,7 @@
         <v>2.3714</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
